--- a/medicine/Psychotrope/Jules_Ouvrard/Jules_Ouvrard.xlsx
+++ b/medicine/Psychotrope/Jules_Ouvrard/Jules_Ouvrard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Julien Ouvrard, dit Jules Ouvrard (3 octobre 1798 à Haute-Goulaine[1] - 22 juin 1861 dans le 2e arrondissement de Paris), est un homme politique français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Julien Ouvrard, dit Jules Ouvrard (3 octobre 1798 à Haute-Goulaine - 22 juin 1861 dans le 2e arrondissement de Paris), est un homme politique français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du célèbre banquier Gabriel-Julien Ouvrard et d'Elisabeth Thébaud, Jules Ouvrard  fit ses études au lycée Napoléon, entra en 1822 au ministère de l'Intérieur, mais en sortit eu 1824, à l'époque où son père eut des démêlés avec le gouvernement. Propriétaire du Clos-Vougeot, il s'adonna alors à la viticulture. En 1830, il publia une brochure sur la Conversion des Rentes, collabora pendant quelque temps à la Presse et fut nommé colonel de la garde nationale de Nuits. 
 Conseiller général de la Côte-d'Or de 1840 à 1848, pour le canton de Nuits-Saint-Georges, il se rallia, après la révolution de février et l'élection présidentielle du 10 décembre, à la politique du prince Louis-Napoléon Bonaparte, fut élu, comme candidat du gouvernement, député de la 2e circonscription de la Côte-d'Or, le 29 février 1852, et fut réélu, le 22 juin 1857. À la Chambre, il fit partie de la commission du budget et de la commission des crédits supplémentaires, et fut rapporteur du projet de loi relatif à la caisse de retraites pour la vieillesse. 
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réflexions sur la proposition de M. Gouin, relative à la conversion de la rente 5%, 1838</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« Jules Ouvrard », dans Adolphe Robert et Gaston Cougny, Dictionnaire des parlementaires français, Edgar Bourloton, 1889-1891 [détail de l’édition]</t>
         </is>
